--- a/Flask_Project/4B1_students.xlsx
+++ b/Flask_Project/4B1_students.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,22 +463,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>stuec878</t>
+          <t>stu3d3d5</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Manish Prasad</t>
+          <t>Adarsh Kumar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>m4manishp4prasad@gmail.com</t>
+          <t>adarsh@gmail.com</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+916203637600</t>
+          <t>987789987</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -490,22 +490,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>stuadd5e</t>
+          <t>stu9a218</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Shankar saq</t>
+          <t>Jay Dhodi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2303051240119@paruluniversity.ac.in</t>
+          <t>jay@gmail.com</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1233211233</t>
+          <t>878987789</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -517,25 +517,79 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>stud91f8</t>
+          <t>stub5876</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dhanraj Prasad</t>
+          <t>Omkar Chavan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>lifod39332@irnini.com</t>
+          <t>omkar@mail.com</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1233211233</t>
+          <t>877787898</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
+        <is>
+          <t>4B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>stue5232</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rahul Kumar</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>rahul@mail.com</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>623567879</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>stu8b972</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Seeta Kumari</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>seeta@gmail.com</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7677876788</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>4B1</t>
         </is>
